--- a/biology/Botanique/Albert_Maumené/Albert_Maumené.xlsx
+++ b/biology/Botanique/Albert_Maumené/Albert_Maumené.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albert_Maumen%C3%A9</t>
+          <t>Albert_Maumené</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Maumené (1874-1963)[1],[2] est un professeur d'horticulture français également journaliste et directeur de publications.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Maumené (1874-1963), est un professeur d'horticulture français également journaliste et directeur de publications.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albert_Maumen%C3%A9</t>
+          <t>Albert_Maumené</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Maumené est diplômé d’horticulture, discipline qu’il enseigne à partir de 1904. 
 Également journaliste, il écrit des livres sur l’horticulture et l’art du jardin, il s’intéresse également aux arts et traditions populaires et à l’architecture. Il est connu sous divers pseudonymes : Cyr de Montmagny, René Desjardins, Philippe Lepage, Guy de Brummel. Nombre de ses articles paraissent dans la revue La Nature.
-Il fonde et dirige  les revues La Vie à la campagne (1906-1966), Jardins et Basses-Cours (1908-1938) et Maisons pour Tous (1925-1938).  Il recrute l'architecte Louis Sézille en 1907 pour en tenir la rubrique architecture[3].
-Sa carrière est récompensée par une médaille d’or de la section d’horticulture à l’Exposition internationale de Turin en 1911. En 1933, il est élu président de la Société française des architectes de jardins en 1933[4].
+Il fonde et dirige  les revues La Vie à la campagne (1906-1966), Jardins et Basses-Cours (1908-1938) et Maisons pour Tous (1925-1938).  Il recrute l'architecte Louis Sézille en 1907 pour en tenir la rubrique architecture.
+Sa carrière est récompensée par une médaille d’or de la section d’horticulture à l’Exposition internationale de Turin en 1911. En 1933, il est élu président de la Société française des architectes de jardins en 1933.
 Il a rédigé de nombreux ouvrages dont le premier essai en français  sur les bonsaï. 
-Photographie
-Albert Maumené a expérimenté la photographie de bouquets[5]. Il a été un des vulgarisateurs de la photographie sur fruits[6]. 
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albert_Maumen%C3%A9</t>
+          <t>Albert_Maumené</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +557,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Photographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Maumené a expérimenté la photographie de bouquets. Il a été un des vulgarisateurs de la photographie sur fruits. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albert_Maumené</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Maumen%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Ouvrages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'art du fleuriste : guide de l'utilisation des plantes et des fleurs dans l'ornementation des appartements, du montage des fleurs et de la composition      des bouquets, des corbeilles et des couronnes,  Paris : Librairie horticole du "Jardin", 240 pages, 1897[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'art du fleuriste : guide de l'utilisation des plantes et des fleurs dans l'ornementation des appartements, du montage des fleurs et de la composition      des bouquets, des corbeilles et des couronnes,  Paris : Librairie horticole du "Jardin", 240 pages, 1897.
 L’Art floral à travers les siècles, Paris : Librairie et imprimerie horticoles, 106 pages, 1900.
-Avec Claude Trébignaud Manuel pratique de jardinage et d'horticulture, Paris : L. Mulo, 900 pages, Encyclopédie Roret,  1900[8] et 1914
-Guide de l'ornementation des jardins : la mosaïculture pratique, histoire, considérations esthétiques, étude du dessin et exécution du projet, étude de la plantation, liste de plantes suivant leur emploi, multiplication des plantes, soins de culture, Paris : Librairie et imprimerie horticoles, 346 pages, 1902[9].
+Avec Claude Trébignaud Manuel pratique de jardinage et d'horticulture, Paris : L. Mulo, 900 pages, Encyclopédie Roret,  1900 et 1914
+Guide de l'ornementation des jardins : la mosaïculture pratique, histoire, considérations esthétiques, étude du dessin et exécution du projet, étude de la plantation, liste de plantes suivant leur emploi, multiplication des plantes, soins de culture, Paris : Librairie et imprimerie horticoles, 346 pages, 1902.
 Les arbres nains japonais : leur formation au Japon, leur utilisation et leur traitement en Europe, Paris : Librairie horticole, 56 pages, 1902
 Les Bouquets et Garnitures florales à l’Exposition d’Horticulture de Paris en 1898
 Nouvelle méthode de culture forcée des arbustes soumis à l’action de l’éther et des anesthésiques
@@ -561,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Albert_Maumen%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert_Maumené</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Albert_Maumen%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Articles de La Nature signés Albert Maumené</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nouveau pot à fleurs à irrigation souterraine (1898)
